--- a/avant liv/AutoEval_Naylor_Natasha.xlsx
+++ b/avant liv/AutoEval_Naylor_Natasha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px05iql\OneDrive - Education Vaud\Cours\2022-2023\T1\P_DEV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pq87hnd\Desktop\spaceInvader\avant liv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_B7671CB04B6939E2648E671004CEE606193A1A23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F145E396-59C2-471D-8211-8A373AB9373C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Naylor_Natasha" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
   <si>
     <t xml:space="preserve">ÉVALUATION DES COMPÉTENCES EN PRATIQUE POUR LA FORMATION </t>
   </si>
@@ -90,6 +87,9 @@
   <si>
     <t xml:space="preserve">Enseignant : </t>
   </si>
+  <si>
+    <t>Natasha shiwen Naylor</t>
+  </si>
 </sst>
 </file>
 
@@ -1582,6 +1582,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1609,83 +1686,6 @@
     <xf numFmtId="164" fontId="43" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2327,11 +2327,11 @@
   </sheetPr>
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="13.15" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="13.15" customHeight="1" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="6" customWidth="1"/>
@@ -2370,11 +2370,11 @@
       <c r="M1" s="4"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="195" t="s">
+      <c r="P1" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
       <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:23" ht="37.5" customHeight="1">
@@ -2462,14 +2462,14 @@
       <c r="M4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="196" t="str">
+      <c r="N4" s="173" t="str">
         <f>[1]Automation!F12</f>
         <v>29.8.2022 - 9.1.2023</v>
       </c>
-      <c r="O4" s="196"/>
-      <c r="P4" s="196"/>
-      <c r="Q4" s="196"/>
-      <c r="R4" s="196"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="173"/>
       <c r="S4" s="27"/>
     </row>
     <row r="5" spans="1:23" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -2509,34 +2509,34 @@
     <row r="7" spans="1:23" s="50" customFormat="1" ht="70.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
       <c r="D7" s="51"/>
-      <c r="E7" s="197" t="str">
+      <c r="E7" s="174" t="str">
         <f>[1]INDICATEURS!E7</f>
         <v>LARGEMENT ACQUIS
 5.5 ou 6.0</v>
       </c>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199" t="str">
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="176" t="str">
         <f>[1]INDICATEURS!H7</f>
         <v>SUFFISANT
 4.0, 4.5 ou 5.0</v>
       </c>
-      <c r="I7" s="200"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="201" t="str">
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="178" t="str">
         <f>[1]INDICATEURS!K7</f>
         <v>INSUFFISANT
 2.5, 3.0 ou 3.5</v>
       </c>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="203" t="str">
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="180" t="str">
         <f>[1]INDICATEURS!N7</f>
         <v>NON ACQUIS
 1.0, 1.5, ou 2.0</v>
       </c>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="181"/>
       <c r="Q7" s="52" t="str">
         <f>[1]INDICATEURS!Q7</f>
         <v>Coeff.</v>
@@ -2550,11 +2550,11 @@
     </row>
     <row r="8" spans="1:23" ht="100.15" customHeight="1" thickTop="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="184" t="str">
+      <c r="B8" s="182" t="str">
         <f>[1]INDICATEURS!B8</f>
         <v>COMPÉTENCES</v>
       </c>
-      <c r="C8" s="187" t="str">
+      <c r="C8" s="185" t="str">
         <f>[1]INDICATEURS!C8</f>
         <v>PROFESSIONNELLES</v>
       </c>
@@ -2579,7 +2579,9 @@
         <f>[1]INDICATEURS!I8</f>
         <v>Respecte les délais fixés avec un rythme normal</v>
       </c>
-      <c r="J8" s="62"/>
+      <c r="J8" s="62">
+        <v>4.5</v>
+      </c>
       <c r="K8" s="63" t="s">
         <v>9</v>
       </c>
@@ -2600,16 +2602,16 @@
         <f>[1]INDICATEURS!Q8</f>
         <v>1</v>
       </c>
-      <c r="R8" s="70" t="str">
+      <c r="R8" s="70">
         <f t="shared" ref="R8:R15" si="0">IF(COUNT(G8,J8,M8,P8)=0,"",IF(COUNT(G8,J8,M8,P8)&lt;&gt;1,"ERREUR",Q8*(G8+J8+M8+P8)))</f>
-        <v/>
+        <v>4.5</v>
       </c>
       <c r="S8" s="13"/>
     </row>
     <row r="9" spans="1:23" ht="100.15" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="185"/>
-      <c r="C9" s="188"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="186"/>
       <c r="D9" s="71" t="str">
         <f>[1]INDICATEURS!D9</f>
         <v>Conscience professionnelle
@@ -2631,7 +2633,9 @@
         <f>[1]INDICATEURS!I9</f>
         <v>Produit un travail utilisable, et transmissible, moyennant quelques retouches</v>
       </c>
-      <c r="J9" s="77"/>
+      <c r="J9" s="77">
+        <v>5</v>
+      </c>
       <c r="K9" s="78" t="s">
         <v>9</v>
       </c>
@@ -2652,16 +2656,16 @@
         <f>[1]INDICATEURS!Q9</f>
         <v>1</v>
       </c>
-      <c r="R9" s="85" t="str">
+      <c r="R9" s="85">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="S9" s="13"/>
     </row>
     <row r="10" spans="1:23" ht="100.15" customHeight="1" thickBot="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="185"/>
-      <c r="C10" s="188"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="186"/>
       <c r="D10" s="71" t="str">
         <f>[1]INDICATEURS!D10</f>
         <v>Connaissances professionnelles
@@ -2675,7 +2679,9 @@
         <f>[1]INDICATEURS!F10</f>
         <v>Intègre totalement dans sa pratique les notions apprises</v>
       </c>
-      <c r="G10" s="74"/>
+      <c r="G10" s="74">
+        <v>5.5</v>
+      </c>
       <c r="H10" s="87" t="s">
         <v>9</v>
       </c>
@@ -2704,16 +2710,16 @@
         <f>[1]INDICATEURS!Q10</f>
         <v>1</v>
       </c>
-      <c r="R10" s="85" t="str">
+      <c r="R10" s="85">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5.5</v>
       </c>
       <c r="S10" s="13"/>
     </row>
     <row r="11" spans="1:23" ht="100.15" customHeight="1" thickTop="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="185"/>
-      <c r="C11" s="189" t="str">
+      <c r="B11" s="183"/>
+      <c r="C11" s="187" t="str">
         <f>[1]INDICATEURS!C11</f>
         <v>METHODOLOGIQUES</v>
       </c>
@@ -2737,7 +2743,9 @@
         <f>[1]INDICATEURS!I11</f>
         <v>Respecte à peu près les règles et processus de travail</v>
       </c>
-      <c r="J11" s="96"/>
+      <c r="J11" s="96">
+        <v>4.5</v>
+      </c>
       <c r="K11" s="63" t="s">
         <v>9</v>
       </c>
@@ -2758,16 +2766,16 @@
         <f>[1]INDICATEURS!Q11</f>
         <v>1</v>
       </c>
-      <c r="R11" s="101" t="str">
+      <c r="R11" s="101">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4.5</v>
       </c>
       <c r="S11" s="13"/>
     </row>
     <row r="12" spans="1:23" ht="100.15" customHeight="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="185"/>
-      <c r="C12" s="190"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="188"/>
       <c r="D12" s="102" t="str">
         <f>[1]INDICATEURS!D12</f>
         <v>Expression orale et écrite
@@ -2781,7 +2789,9 @@
         <f>[1]INDICATEURS!F12</f>
         <v>Maîtrise parfaitement les différents moyens et outils de communication et de documentation</v>
       </c>
-      <c r="G12" s="105"/>
+      <c r="G12" s="105">
+        <v>5.5</v>
+      </c>
       <c r="H12" s="106" t="s">
         <v>9</v>
       </c>
@@ -2810,16 +2820,16 @@
         <f>[1]INDICATEURS!Q12</f>
         <v>1</v>
       </c>
-      <c r="R12" s="116" t="str">
+      <c r="R12" s="116">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5.5</v>
       </c>
       <c r="S12" s="13"/>
     </row>
     <row r="13" spans="1:23" ht="100.15" customHeight="1" thickBot="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="185"/>
-      <c r="C13" s="191"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="189"/>
       <c r="D13" s="117" t="str">
         <f>[1]INDICATEURS!D13</f>
         <v>Approche écologique et économique
@@ -2832,7 +2842,9 @@
         <f>[1]INDICATEURS!F13</f>
         <v>Recourt systématiquement aux technologies et moyens qui ménagent les ressources et les coûts</v>
       </c>
-      <c r="G13" s="119"/>
+      <c r="G13" s="119">
+        <v>6</v>
+      </c>
       <c r="H13" s="87" t="s">
         <v>9</v>
       </c>
@@ -2862,15 +2874,15 @@
       <c r="Q13" s="126">
         <v>0</v>
       </c>
-      <c r="R13" s="127">
+      <c r="R13" s="127" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>ERREUR</v>
       </c>
       <c r="S13" s="13"/>
     </row>
     <row r="14" spans="1:23" ht="100.15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="185"/>
+      <c r="B14" s="183"/>
       <c r="C14" s="128" t="str">
         <f>[1]INDICATEURS!C14</f>
         <v>SOCIALES</v>
@@ -2896,7 +2908,9 @@
         <v>Maintien les bonnes relations
 et participe aux solutions</v>
       </c>
-      <c r="J14" s="130"/>
+      <c r="J14" s="130">
+        <v>5</v>
+      </c>
       <c r="K14" s="90" t="s">
         <v>9</v>
       </c>
@@ -2917,15 +2931,15 @@
         <f>[1]INDICATEURS!Q14</f>
         <v>1</v>
       </c>
-      <c r="R14" s="135" t="str">
+      <c r="R14" s="135">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="S14" s="13"/>
     </row>
     <row r="15" spans="1:23" ht="120" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="186"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="128" t="str">
         <f>[1]INDICATEURS!C15</f>
         <v>PERSONNELLES</v>
@@ -2944,7 +2958,9 @@
         <f>[1]INDICATEURS!F15</f>
         <v>Est indépendant, entreprenant, et s'adapte facilement aux changements</v>
       </c>
-      <c r="G15" s="139"/>
+      <c r="G15" s="139">
+        <v>5.5</v>
+      </c>
       <c r="H15" s="140" t="s">
         <v>9</v>
       </c>
@@ -2973,9 +2989,9 @@
         <f>[1]INDICATEURS!Q15</f>
         <v>1</v>
       </c>
-      <c r="R15" s="135" t="str">
+      <c r="R15" s="135">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5.5</v>
       </c>
       <c r="S15" s="13"/>
     </row>
@@ -2997,7 +3013,7 @@
       <c r="M17" s="151"/>
       <c r="N17" s="153"/>
       <c r="O17" s="154"/>
-      <c r="P17" s="192" t="s">
+      <c r="P17" s="190" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="155"/>
@@ -3013,43 +3029,45 @@
       <c r="M18" s="152"/>
       <c r="N18" s="152"/>
       <c r="O18" s="152"/>
-      <c r="P18" s="192"/>
+      <c r="P18" s="190"/>
       <c r="Q18" s="155"/>
       <c r="R18" s="155"/>
       <c r="S18" s="13"/>
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="193"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="K19" s="205" t="s">
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="K19" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="205"/>
-      <c r="M19" s="194"/>
-      <c r="N19" s="194"/>
-      <c r="O19" s="194"/>
-      <c r="P19" s="192"/>
+      <c r="L19" s="192"/>
+      <c r="M19" s="193">
+        <v>44881</v>
+      </c>
+      <c r="N19" s="193"/>
+      <c r="O19" s="193"/>
+      <c r="P19" s="190"/>
       <c r="Q19" s="155"/>
       <c r="R19" s="155"/>
       <c r="S19" s="13"/>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="181"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
       <c r="K20" s="158"/>
       <c r="L20" s="158"/>
       <c r="M20" s="152"/>
@@ -3062,21 +3080,23 @@
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="181"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
-      <c r="K21" s="182" t="s">
+      <c r="B21" s="194"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="K21" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="182"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="183"/>
+      <c r="L21" s="195"/>
+      <c r="M21" s="196" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="196"/>
+      <c r="O21" s="196"/>
       <c r="P21" s="161"/>
       <c r="Q21" s="162"/>
       <c r="R21" s="162"/>
@@ -3084,14 +3104,14 @@
     </row>
     <row r="22" spans="1:19" ht="30" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="181"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
       <c r="K22" s="152"/>
       <c r="L22" s="152"/>
       <c r="M22" s="152"/>
@@ -3103,112 +3123,112 @@
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="194"/>
       <c r="J23" s="163"/>
       <c r="K23" s="151" t="s">
         <v>14</v>
       </c>
       <c r="L23" s="164"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
-      <c r="O23" s="183"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="175" t="str">
+      <c r="M23" s="196"/>
+      <c r="N23" s="196"/>
+      <c r="O23" s="196"/>
+      <c r="P23" s="198"/>
+      <c r="Q23" s="200" t="str">
         <f>IF(COUNT(R8:R15)=8,MROUND(SUM(R8:R15)/SUM(Q8:Q15),0.5),"")</f>
         <v/>
       </c>
-      <c r="R23" s="176"/>
+      <c r="R23" s="201"/>
       <c r="S23" s="13"/>
     </row>
     <row r="24" spans="1:19" ht="30" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="181"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
+      <c r="B24" s="194"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
       <c r="J24" s="165"/>
       <c r="K24" s="152"/>
       <c r="L24" s="151"/>
       <c r="M24" s="151"/>
       <c r="N24" s="151"/>
       <c r="O24" s="166"/>
-      <c r="P24" s="174"/>
-      <c r="Q24" s="177"/>
-      <c r="R24" s="178"/>
+      <c r="P24" s="199"/>
+      <c r="Q24" s="202"/>
+      <c r="R24" s="203"/>
       <c r="S24" s="13"/>
     </row>
     <row r="25" spans="1:19" ht="28.5" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="181"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
       <c r="J25" s="163"/>
       <c r="K25" s="152"/>
       <c r="L25" s="164"/>
       <c r="M25" s="152"/>
       <c r="N25" s="167"/>
       <c r="O25" s="166"/>
-      <c r="P25" s="174"/>
-      <c r="Q25" s="177"/>
-      <c r="R25" s="178"/>
+      <c r="P25" s="199"/>
+      <c r="Q25" s="202"/>
+      <c r="R25" s="203"/>
       <c r="S25" s="13"/>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="181"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="181"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="181"/>
+      <c r="B26" s="194"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="194"/>
       <c r="J26" s="165"/>
       <c r="K26" s="168"/>
       <c r="L26" s="152"/>
       <c r="M26" s="152"/>
       <c r="N26" s="167"/>
       <c r="O26" s="166"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="177"/>
-      <c r="R26" s="178"/>
+      <c r="P26" s="199"/>
+      <c r="Q26" s="202"/>
+      <c r="R26" s="203"/>
       <c r="S26" s="13"/>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="181"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="194"/>
       <c r="J27" s="165"/>
       <c r="K27" s="168"/>
       <c r="L27" s="152"/>
       <c r="M27" s="152"/>
       <c r="N27" s="167"/>
       <c r="O27" s="166"/>
-      <c r="P27" s="174"/>
-      <c r="Q27" s="179"/>
-      <c r="R27" s="180"/>
+      <c r="P27" s="199"/>
+      <c r="Q27" s="204"/>
+      <c r="R27" s="205"/>
       <c r="S27" s="13"/>
     </row>
     <row r="28" spans="1:19" ht="9.75" hidden="1" customHeight="1" thickBot="1">
@@ -3242,7 +3262,7 @@
     <row r="36" spans="1:19" ht="30" hidden="1" customHeight="1"/>
     <row r="37" spans="1:19" ht="30" hidden="1" customHeight="1"/>
     <row r="38" spans="1:19" ht="30" hidden="1" customHeight="1"/>
-    <row r="39" spans="1:19" ht="13.9" thickBot="1">
+    <row r="39" spans="1:19" ht="13.5" thickBot="1">
       <c r="A39" s="169"/>
       <c r="B39" s="170"/>
       <c r="C39" s="170"/>
@@ -3263,79 +3283,61 @@
       <c r="R39" s="170"/>
       <c r="S39" s="171"/>
     </row>
-    <row r="40" spans="1:19"/>
-    <row r="41" spans="1:19"/>
-    <row r="42" spans="1:19"/>
-    <row r="43" spans="1:19"/>
-    <row r="44" spans="1:19">
-      <c r="L44" s="172"/>
-      <c r="M44" s="172"/>
-      <c r="N44" s="172"/>
+    <row r="40" spans="1:19" ht="12.75"/>
+    <row r="41" spans="1:19" ht="12.75"/>
+    <row r="42" spans="1:19" ht="12.75"/>
+    <row r="43" spans="1:19" ht="12.75"/>
+    <row r="44" spans="1:19" ht="12.75">
+      <c r="L44" s="197"/>
+      <c r="M44" s="197"/>
+      <c r="N44" s="197"/>
     </row>
-    <row r="45" spans="1:19">
-      <c r="L45" s="172"/>
-      <c r="M45" s="172"/>
-      <c r="N45" s="172"/>
+    <row r="45" spans="1:19" ht="12.75">
+      <c r="L45" s="197"/>
+      <c r="M45" s="197"/>
+      <c r="N45" s="197"/>
     </row>
-    <row r="46" spans="1:19"/>
-    <row r="47" spans="1:19"/>
-    <row r="48" spans="1:19"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
+    <row r="46" spans="1:19" ht="12.75"/>
+    <row r="47" spans="1:19" ht="12.75"/>
+    <row r="48" spans="1:19" ht="12.75"/>
+    <row r="49" ht="12.75"/>
+    <row r="50" ht="12.75"/>
+    <row r="51" ht="12.75"/>
+    <row r="52" ht="12.75"/>
+    <row r="53" ht="12.75"/>
+    <row r="54" ht="12.75"/>
+    <row r="55" ht="12.75"/>
+    <row r="56" ht="12.75"/>
+    <row r="57" ht="12.75"/>
+    <row r="58" ht="12.75"/>
+    <row r="59" ht="12.75"/>
+    <row r="60" ht="12.75"/>
+    <row r="61" ht="12.75"/>
+    <row r="62" ht="12.75"/>
+    <row r="63" ht="12.75"/>
+    <row r="64" ht="12.75"/>
+    <row r="65" ht="12.75"/>
+    <row r="66" ht="12.75"/>
+    <row r="67" ht="12.75"/>
+    <row r="68" ht="12.75"/>
+    <row r="69" ht="12.75"/>
+    <row r="70" ht="12.75"/>
+    <row r="71" ht="12.75"/>
+    <row r="72" ht="12.75"/>
+    <row r="73" ht="12.75"/>
+    <row r="74" ht="12.75"/>
+    <row r="75" ht="12.75"/>
+    <row r="76" ht="12.75"/>
+    <row r="77" ht="12.75"/>
+    <row r="78" ht="12.75"/>
+    <row r="79" ht="12.75"/>
+    <row r="80" ht="12.75"/>
+    <row r="81" ht="12.75"/>
+    <row r="82" ht="12.75"/>
+    <row r="83" ht="12.75"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="27">
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="B22:I22"/>
     <mergeCell ref="L44:N45"/>
     <mergeCell ref="P23:P27"/>
     <mergeCell ref="Q23:R27"/>
@@ -3345,6 +3347,24 @@
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="M23:O23"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="Q23:R27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
@@ -3391,15 +3411,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E529CC47EA4E614CBF50FAFAB9B8F32B" ma:contentTypeVersion="8" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f813ab756c42af8af494d6605e22e37b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98d92101-24da-4498-9971-a24673344bd8" xmlns:ns3="dfa80de1-e9bb-4cf2-893d-d06220b3971a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="808c042e6474ee35eb4b0b0b71aaa865" ns2:_="" ns3:_="">
     <xsd:import namespace="98d92101-24da-4498-9971-a24673344bd8"/>
@@ -3576,14 +3587,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E964729D-449F-46B6-8EB4-ADE4CD1A7AAF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E964729D-449F-46B6-8EB4-ADE4CD1A7AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="98d92101-24da-4498-9971-a24673344bd8"/>
+    <ds:schemaRef ds:uri="dfa80de1-e9bb-4cf2-893d-d06220b3971a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9DF49D0-A3BD-46E6-8479-AE24C4B4D025}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0F68703-D191-4C91-958B-FAC4AB023626}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="98d92101-24da-4498-9971-a24673344bd8"/>
+    <ds:schemaRef ds:uri="dfa80de1-e9bb-4cf2-893d-d06220b3971a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0F68703-D191-4C91-958B-FAC4AB023626}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9DF49D0-A3BD-46E6-8479-AE24C4B4D025}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/avant liv/AutoEval_Naylor_Natasha.xlsx
+++ b/avant liv/AutoEval_Naylor_Natasha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pq87hnd\Desktop\spaceInvader\avant liv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F145E396-59C2-471D-8211-8A373AB9373C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A462EB3C-FDF0-4764-9D8E-8A802D0DDBC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t xml:space="preserve">ÉVALUATION DES COMPÉTENCES EN PRATIQUE POUR LA FORMATION </t>
   </si>
@@ -90,6 +90,11 @@
   <si>
     <t>Natasha shiwen Naylor</t>
   </si>
+  <si>
+    <t>o
+x
+o</t>
+  </si>
 </sst>
 </file>
 
@@ -1582,35 +1587,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1648,42 +1661,34 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2328,7 +2333,7 @@
   <dimension ref="A1:W83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="13.15" customHeight="1" zeroHeight="1"/>
@@ -2370,11 +2375,11 @@
       <c r="M1" s="4"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="172" t="s">
+      <c r="P1" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
       <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:23" ht="37.5" customHeight="1">
@@ -2462,14 +2467,14 @@
       <c r="M4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="173" t="str">
+      <c r="N4" s="197" t="str">
         <f>[1]Automation!F12</f>
         <v>29.8.2022 - 9.1.2023</v>
       </c>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="173"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="197"/>
+      <c r="R4" s="197"/>
       <c r="S4" s="27"/>
     </row>
     <row r="5" spans="1:23" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -2509,34 +2514,34 @@
     <row r="7" spans="1:23" s="50" customFormat="1" ht="70.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
       <c r="D7" s="51"/>
-      <c r="E7" s="174" t="str">
+      <c r="E7" s="198" t="str">
         <f>[1]INDICATEURS!E7</f>
         <v>LARGEMENT ACQUIS
 5.5 ou 6.0</v>
       </c>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="176" t="str">
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="200" t="str">
         <f>[1]INDICATEURS!H7</f>
         <v>SUFFISANT
 4.0, 4.5 ou 5.0</v>
       </c>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="178" t="str">
+      <c r="I7" s="201"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="202" t="str">
         <f>[1]INDICATEURS!K7</f>
         <v>INSUFFISANT
 2.5, 3.0 ou 3.5</v>
       </c>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="180" t="str">
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="204" t="str">
         <f>[1]INDICATEURS!N7</f>
         <v>NON ACQUIS
 1.0, 1.5, ou 2.0</v>
       </c>
-      <c r="O7" s="181"/>
-      <c r="P7" s="181"/>
+      <c r="O7" s="205"/>
+      <c r="P7" s="205"/>
       <c r="Q7" s="52" t="str">
         <f>[1]INDICATEURS!Q7</f>
         <v>Coeff.</v>
@@ -2550,11 +2555,11 @@
     </row>
     <row r="8" spans="1:23" ht="100.15" customHeight="1" thickTop="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="182" t="str">
+      <c r="B8" s="184" t="str">
         <f>[1]INDICATEURS!B8</f>
         <v>COMPÉTENCES</v>
       </c>
-      <c r="C8" s="185" t="str">
+      <c r="C8" s="187" t="str">
         <f>[1]INDICATEURS!C8</f>
         <v>PROFESSIONNELLES</v>
       </c>
@@ -2573,7 +2578,7 @@
       </c>
       <c r="G8" s="59"/>
       <c r="H8" s="60" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I8" s="61" t="str">
         <f>[1]INDICATEURS!I8</f>
@@ -2610,8 +2615,8 @@
     </row>
     <row r="9" spans="1:23" ht="100.15" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="186"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="188"/>
       <c r="D9" s="71" t="str">
         <f>[1]INDICATEURS!D9</f>
         <v>Conscience professionnelle
@@ -2627,7 +2632,7 @@
       </c>
       <c r="G9" s="74"/>
       <c r="H9" s="75" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I9" s="76" t="str">
         <f>[1]INDICATEURS!I9</f>
@@ -2664,8 +2669,8 @@
     </row>
     <row r="10" spans="1:23" ht="100.15" customHeight="1" thickBot="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="183"/>
-      <c r="C10" s="186"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="188"/>
       <c r="D10" s="71" t="str">
         <f>[1]INDICATEURS!D10</f>
         <v>Connaissances professionnelles
@@ -2673,7 +2678,7 @@
 [Types de variable, boucles, tableaux, algorithmes]</v>
       </c>
       <c r="E10" s="86" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="73" t="str">
         <f>[1]INDICATEURS!F10</f>
@@ -2718,8 +2723,8 @@
     </row>
     <row r="11" spans="1:23" ht="100.15" customHeight="1" thickTop="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="183"/>
-      <c r="C11" s="187" t="str">
+      <c r="B11" s="185"/>
+      <c r="C11" s="189" t="str">
         <f>[1]INDICATEURS!C11</f>
         <v>METHODOLOGIQUES</v>
       </c>
@@ -2737,7 +2742,7 @@
       </c>
       <c r="G11" s="94"/>
       <c r="H11" s="60" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I11" s="95" t="str">
         <f>[1]INDICATEURS!I11</f>
@@ -2774,8 +2779,8 @@
     </row>
     <row r="12" spans="1:23" ht="100.15" customHeight="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="183"/>
-      <c r="C12" s="188"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="190"/>
       <c r="D12" s="102" t="str">
         <f>[1]INDICATEURS!D12</f>
         <v>Expression orale et écrite
@@ -2783,7 +2788,7 @@
 [Commentaires (Doxygen), Orthographe JDT, propreté du code]</v>
       </c>
       <c r="E12" s="103" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="104" t="str">
         <f>[1]INDICATEURS!F12</f>
@@ -2828,15 +2833,15 @@
     </row>
     <row r="13" spans="1:23" ht="100.15" customHeight="1" thickBot="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="183"/>
-      <c r="C13" s="189"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="191"/>
       <c r="D13" s="117" t="str">
         <f>[1]INDICATEURS!D13</f>
         <v>Approche écologique et économique
 [Ecran/Multiprise, Moteur de recherche Ecosia, Utilisation mémoire/CPU]</v>
       </c>
       <c r="E13" s="86" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F13" s="118" t="str">
         <f>[1]INDICATEURS!F13</f>
@@ -2882,7 +2887,7 @@
     </row>
     <row r="14" spans="1:23" ht="100.15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="183"/>
+      <c r="B14" s="185"/>
       <c r="C14" s="128" t="str">
         <f>[1]INDICATEURS!C14</f>
         <v>SOCIALES</v>
@@ -2901,7 +2906,7 @@
       </c>
       <c r="G14" s="119"/>
       <c r="H14" s="87" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I14" s="129" t="str">
         <f>[1]INDICATEURS!I14</f>
@@ -2939,7 +2944,7 @@
     </row>
     <row r="15" spans="1:23" ht="120" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="184"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="128" t="str">
         <f>[1]INDICATEURS!C15</f>
         <v>PERSONNELLES</v>
@@ -2952,7 +2957,7 @@
 [Essayer 15m avant de poser une question...]</v>
       </c>
       <c r="E15" s="137" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F15" s="138" t="str">
         <f>[1]INDICATEURS!F15</f>
@@ -3013,7 +3018,7 @@
       <c r="M17" s="151"/>
       <c r="N17" s="153"/>
       <c r="O17" s="154"/>
-      <c r="P17" s="190" t="s">
+      <c r="P17" s="192" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="155"/>
@@ -3029,45 +3034,45 @@
       <c r="M18" s="152"/>
       <c r="N18" s="152"/>
       <c r="O18" s="152"/>
-      <c r="P18" s="190"/>
+      <c r="P18" s="192"/>
       <c r="Q18" s="155"/>
       <c r="R18" s="155"/>
       <c r="S18" s="13"/>
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="191"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
-      <c r="K19" s="192" t="s">
+      <c r="B19" s="193"/>
+      <c r="C19" s="193"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="193"/>
+      <c r="K19" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="192"/>
-      <c r="M19" s="193">
+      <c r="L19" s="194"/>
+      <c r="M19" s="195">
         <v>44881</v>
       </c>
-      <c r="N19" s="193"/>
-      <c r="O19" s="193"/>
-      <c r="P19" s="190"/>
+      <c r="N19" s="195"/>
+      <c r="O19" s="195"/>
+      <c r="P19" s="192"/>
       <c r="Q19" s="155"/>
       <c r="R19" s="155"/>
       <c r="S19" s="13"/>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="194"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="194"/>
+      <c r="B20" s="181"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
       <c r="K20" s="158"/>
       <c r="L20" s="158"/>
       <c r="M20" s="152"/>
@@ -3080,23 +3085,23 @@
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="194"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="194"/>
-      <c r="K21" s="195" t="s">
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="K21" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="195"/>
-      <c r="M21" s="196" t="s">
+      <c r="L21" s="183"/>
+      <c r="M21" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="196"/>
-      <c r="O21" s="196"/>
+      <c r="N21" s="182"/>
+      <c r="O21" s="182"/>
       <c r="P21" s="161"/>
       <c r="Q21" s="162"/>
       <c r="R21" s="162"/>
@@ -3104,14 +3109,14 @@
     </row>
     <row r="22" spans="1:19" ht="30" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="194"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="194"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
       <c r="K22" s="152"/>
       <c r="L22" s="152"/>
       <c r="M22" s="152"/>
@@ -3123,112 +3128,112 @@
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="194"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="194"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
       <c r="J23" s="163"/>
       <c r="K23" s="151" t="s">
         <v>14</v>
       </c>
       <c r="L23" s="164"/>
-      <c r="M23" s="196"/>
-      <c r="N23" s="196"/>
-      <c r="O23" s="196"/>
-      <c r="P23" s="198"/>
-      <c r="Q23" s="200" t="str">
+      <c r="M23" s="182"/>
+      <c r="N23" s="182"/>
+      <c r="O23" s="182"/>
+      <c r="P23" s="173"/>
+      <c r="Q23" s="175" t="str">
         <f>IF(COUNT(R8:R15)=8,MROUND(SUM(R8:R15)/SUM(Q8:Q15),0.5),"")</f>
         <v/>
       </c>
-      <c r="R23" s="201"/>
+      <c r="R23" s="176"/>
       <c r="S23" s="13"/>
     </row>
     <row r="24" spans="1:19" ht="30" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="194"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="194"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
       <c r="J24" s="165"/>
       <c r="K24" s="152"/>
       <c r="L24" s="151"/>
       <c r="M24" s="151"/>
       <c r="N24" s="151"/>
       <c r="O24" s="166"/>
-      <c r="P24" s="199"/>
-      <c r="Q24" s="202"/>
-      <c r="R24" s="203"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="177"/>
+      <c r="R24" s="178"/>
       <c r="S24" s="13"/>
     </row>
     <row r="25" spans="1:19" ht="28.5" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="194"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="194"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
       <c r="J25" s="163"/>
       <c r="K25" s="152"/>
       <c r="L25" s="164"/>
       <c r="M25" s="152"/>
       <c r="N25" s="167"/>
       <c r="O25" s="166"/>
-      <c r="P25" s="199"/>
-      <c r="Q25" s="202"/>
-      <c r="R25" s="203"/>
+      <c r="P25" s="174"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="178"/>
       <c r="S25" s="13"/>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="194"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="194"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="194"/>
-      <c r="G26" s="194"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="194"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="181"/>
       <c r="J26" s="165"/>
       <c r="K26" s="168"/>
       <c r="L26" s="152"/>
       <c r="M26" s="152"/>
       <c r="N26" s="167"/>
       <c r="O26" s="166"/>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="202"/>
-      <c r="R26" s="203"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="177"/>
+      <c r="R26" s="178"/>
       <c r="S26" s="13"/>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="194"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="194"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
       <c r="J27" s="165"/>
       <c r="K27" s="168"/>
       <c r="L27" s="152"/>
       <c r="M27" s="152"/>
       <c r="N27" s="167"/>
       <c r="O27" s="166"/>
-      <c r="P27" s="199"/>
-      <c r="Q27" s="204"/>
-      <c r="R27" s="205"/>
+      <c r="P27" s="174"/>
+      <c r="Q27" s="179"/>
+      <c r="R27" s="180"/>
       <c r="S27" s="13"/>
     </row>
     <row r="28" spans="1:19" ht="9.75" hidden="1" customHeight="1" thickBot="1">
@@ -3288,14 +3293,14 @@
     <row r="42" spans="1:19" ht="12.75"/>
     <row r="43" spans="1:19" ht="12.75"/>
     <row r="44" spans="1:19" ht="12.75">
-      <c r="L44" s="197"/>
-      <c r="M44" s="197"/>
-      <c r="N44" s="197"/>
+      <c r="L44" s="172"/>
+      <c r="M44" s="172"/>
+      <c r="N44" s="172"/>
     </row>
     <row r="45" spans="1:19" ht="12.75">
-      <c r="L45" s="197"/>
-      <c r="M45" s="197"/>
-      <c r="N45" s="197"/>
+      <c r="L45" s="172"/>
+      <c r="M45" s="172"/>
+      <c r="N45" s="172"/>
     </row>
     <row r="46" spans="1:19" ht="12.75"/>
     <row r="47" spans="1:19" ht="12.75"/>
@@ -3338,6 +3343,24 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="27">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="B22:I22"/>
     <mergeCell ref="L44:N45"/>
     <mergeCell ref="P23:P27"/>
     <mergeCell ref="Q23:R27"/>
@@ -3347,24 +3370,6 @@
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="M23:O23"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="Q23:R27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
@@ -3411,6 +3416,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E529CC47EA4E614CBF50FAFAB9B8F32B" ma:contentTypeVersion="8" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f813ab756c42af8af494d6605e22e37b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98d92101-24da-4498-9971-a24673344bd8" xmlns:ns3="dfa80de1-e9bb-4cf2-893d-d06220b3971a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="808c042e6474ee35eb4b0b0b71aaa865" ns2:_="" ns3:_="">
     <xsd:import namespace="98d92101-24da-4498-9971-a24673344bd8"/>
@@ -3587,15 +3601,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E964729D-449F-46B6-8EB4-ADE4CD1A7AAF}">
   <ds:schemaRefs>
@@ -3614,6 +3619,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9DF49D0-A3BD-46E6-8479-AE24C4B4D025}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0F68703-D191-4C91-958B-FAC4AB023626}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3630,12 +3643,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9DF49D0-A3BD-46E6-8479-AE24C4B4D025}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>